--- a/ConceptMap-R5-ExampleScenario-elements-for-R4-ExampleScenario.xlsx
+++ b/ConceptMap-R5-ExampleScenario-elements-for-R4-ExampleScenario.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="204">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.8489365-06:00</t>
+    <t>2026-02-17T14:42:27.2460136-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -582,18 +582,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario#ExampleScenario.process.step.operation.request</t>
   </si>
   <si>
-    <t>ExampleScenario.process.step.operation.request.instanceReference</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario#ExampleScenario.process.step.operation.request.resourceId</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.request.versionReference</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario#ExampleScenario.process.step.operation.request.versionId</t>
-  </si>
-  <si>
     <t>ExampleScenario.process.step.operation.response</t>
   </si>
   <si>
@@ -612,22 +600,10 @@
     <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario#ExampleScenario.process.step.alternative</t>
   </si>
   <si>
-    <t>ExampleScenario.process.step.operation.response.instanceReference</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario#ExampleScenario.process.step.operation.response.resourceId</t>
-  </si>
-  <si>
     <t>ExampleScenario.process.step.alternative.title</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario#ExampleScenario.process.step.alternative.title</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.response.versionReference</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario#ExampleScenario.process.step.operation.response.versionId</t>
   </si>
   <si>
     <t>ExampleScenario.process.step.alternative.description</t>
@@ -905,7 +881,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1754,46 +1730,46 @@
         <v>189</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -1806,7 +1782,7 @@
         <v>199</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -1819,65 +1795,13 @@
         <v>201</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E74" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
